--- a/testData/TestData.xlsx
+++ b/testData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCA2317-BE8F-4080-88DE-A2C203073F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB604921-F140-47D0-A84A-E7B037B7A273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>TestCases</t>
   </si>
@@ -295,6 +295,12 @@
   </si>
   <si>
     <t>Printed Summer Dress</t>
+  </si>
+  <si>
+    <t>sysdkeir@gmail.com</t>
+  </si>
+  <si>
+    <t>sfjdfjfjekiei</t>
   </si>
 </sst>
 </file>
@@ -761,7 +767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1019,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,13 +1056,22 @@
         <v>50</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{65A955AF-9EEF-4579-885C-3001FB6D272C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 
